--- a/Data/RQ1/RQ1-Iteration_number.xlsx
+++ b/Data/RQ1/RQ1-Iteration_number.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21731" windowHeight="12335"/>
+    <workbookView windowWidth="21288" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Dataset</t>
   </si>
@@ -36,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -964,13 +977,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="18.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="18.7777777777778" customWidth="1"/>
@@ -996,7 +1009,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>201</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1007,7 +1020,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1015,21 +1028,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1037,10 +1050,21 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <v>6</v>
+      <c r="C7" s="1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
